--- a/biology/Histoire de la zoologie et de la botanique/Eduardo_Hernández-Pacheco_y_Estevan/Eduardo_Hernández-Pacheco_y_Estevan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduardo_Hernández-Pacheco_y_Estevan/Eduardo_Hernández-Pacheco_y_Estevan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduardo_Hern%C3%A1ndez-Pacheco_y_Estevan</t>
+          <t>Eduardo_Hernández-Pacheco_y_Estevan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduardo Hernández-Pacheco y Estevan, né le 23 mai 1872 à Madrid et mort le 6 mars 1965 (à 92 ans) à Alcuéscar, est un naturaliste, géologue et préhistorien espagnol.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduardo_Hern%C3%A1ndez-Pacheco_y_Estevan</t>
+          <t>Eduardo_Hernández-Pacheco_y_Estevan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études secondaires à Badajoz et obtient une licence de sciences naturelles à l'université complutense de Madrid où il est récompensé d'un prix extraordinaire.
 Boursier de la Junta para Ampliacion de Estudios, il fait le tour des musées européens (France, Belgique, Suisse et Italie) puis devient professeur de sciences naturelles au collège de Cáceres puis de Cordoue. En 1910, il obtient la chaire de géologie de la Faculté des sciences de l'université centrale de Madrid ainsi que celle de géographie physique.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eduardo_Hern%C3%A1ndez-Pacheco_y_Estevan</t>
+          <t>Eduardo_Hernández-Pacheco_y_Estevan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Estudio geologico de la Sierra de Montanchez, 1896
 Practicas elementales de Historia natural, 1903
